--- a/files/post_experiment_state_form_2.xlsx
+++ b/files/post_experiment_state_form_2.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denkabaruhin/PycharmProjects/summer_practice/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D90DBF1-30A7-A344-AF6D-6411779210F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="349">
   <si>
     <t>ID</t>
   </si>
@@ -318,13 +312,807 @@
   </si>
   <si>
     <t>Нет не играл, ожидал меньше катсцен. Но они выполнены очень качественно, понравилось</t>
+  </si>
+  <si>
+    <t>2025-04-07 04:36:23</t>
+  </si>
+  <si>
+    <t>7. Чувствую себя очень хорошо. Жизнерадостен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувствовал только сонливость из-за того что мало поспал накануне, я практически уснул только после того как поиграл и на последней просьбе расслабиьься начал погружаться в сон. Во время игры я перестал обращать внимание на звуки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вообще не утомительно наоборот хотелось что бы он продолжался.Утомлегие было связано только с тем что накануне мало спал (по личным ощущениям). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игра очень понравилась, она предоставляет мне сложное испытание и после его прохадения я чувствую себя удовлетворенно т.к смог справиться с ним </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да играл ранее и проходил 2 раза. Первое прохождение очень тяжело далось, 2 практически без затруднений, учитывая предидущтй  опыт игра все равно смогла дать мне чувство преодоления испытания. </t>
+  </si>
+  <si>
+    <t>2025-04-24 05:30:51</t>
+  </si>
+  <si>
+    <t>10. Порыв, не знающий преград. Жизненная сила выплескивается через край.</t>
+  </si>
+  <si>
+    <t>10. Для меня нет ничего невозможного. Смогу сделать все, что хочу.</t>
+  </si>
+  <si>
+    <t>7 - очень много</t>
+  </si>
+  <si>
+    <t>Во время игры самочувствие было хорошее</t>
+  </si>
+  <si>
+    <t>Эксперимент не показался утомительным, наоборот было интересно</t>
+  </si>
+  <si>
+    <t>Игра очень понравилась. Не смотря на то, что она была сделана не так уж и недавно, графика в этой игре потрясающая.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да играл. Примерно года два назад прошёл её полностью, понравилась, но под конец было немного скучно. </t>
+  </si>
+  <si>
+    <t>2025-04-17 10:57:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Слегка перегрелся (шлем) , слегка тяжко было на сердце(малое количество сна) </t>
+  </si>
+  <si>
+    <t>Не особо утомительный, кроме вспотевшей спины. В целом, не особо и было утомление</t>
+  </si>
+  <si>
+    <t>Финский геймдев воистинну страннен и креативен</t>
+  </si>
+  <si>
+    <t>Да, относительно среднее количество часов. В основном это повезёт, не повезёт, ну или ты ходишь около 20 минут чтоб получить стабильный бонус и попытаться собрать что-то адекватное. Игра очень завязана на случае, и одновременно имеет стабильную сложность</t>
+  </si>
+  <si>
+    <t>2025-04-23 10:41:17</t>
+  </si>
+  <si>
+    <t>8. Много энергии, сильная потребность в действии.</t>
+  </si>
+  <si>
+    <t>8. Возбужден, в хорошем расположении духа.</t>
+  </si>
+  <si>
+    <t>8. Очень уверен в своих способностях.</t>
+  </si>
+  <si>
+    <t>7 - очень сложной</t>
+  </si>
+  <si>
+    <t>7 - очень хорошо</t>
+  </si>
+  <si>
+    <t>Хорошее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не утомительно </t>
+  </si>
+  <si>
+    <t>Да, боевкой.</t>
+  </si>
+  <si>
+    <t>Да, играл ранее. , печальный опыт, сильно "душит игра" по конец".</t>
+  </si>
+  <si>
+    <t>2025-05-03 08:03:46</t>
+  </si>
+  <si>
+    <t>Тревожность(мало спала)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Было такое желание, когда нужно было смотреть на плюс и расслабляться </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понравилась, я люблю симс и строить там, это отвлекает и мне нравится реализовывать идеи с пинтереста </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играла, только у меня было много доп контента, строительство от этого становилось более реалистичным </t>
+  </si>
+  <si>
+    <t>2025-04-27 11:05:07</t>
+  </si>
+  <si>
+    <t>Чувствовал себя в норме, небольшая усталость после 30ти минут нахождения в одном положении. Не было дискомфорта, был погружен в игру</t>
+  </si>
+  <si>
+    <t>После 30 минут была небольшая усталость, желания чтобы он поскорее закончился не было.</t>
+  </si>
+  <si>
+    <t>Да, понравилась, очень затягивает и появляется чувство потока, фокуса на игре.  Понравилась за картинку и звук. Хорошая метроидвания.</t>
+  </si>
+  <si>
+    <t>Почти не играл, пару раз начинал, но не было времени. Впечатления были хорошие, игра очень понравилась звуковым сопровождением и картинкой</t>
+  </si>
+  <si>
+    <t>2025-04-20 08:15:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Во время игры чувствовал себя отлично. В остальное время раздражали звуки. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Во время игры не было желание конца эксперимента. В остальное время было скучно и хотелось бы, чтобы он поскорее закончился. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игра понравилась, потому что это культовый шутер. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да играл ранее. Предыдущий игровой опыт краней положительный, так как я обожаю жанр шутеры. </t>
+  </si>
+  <si>
+    <t>2025-04-28 05:21:47</t>
+  </si>
+  <si>
+    <t>Чувствовал себя хорошо, вовлечено.  Но под конец игры затекло тело и было дискомфортно сидеть. В связи с тем что я привык играть на консолях с геймпадом на клавиатуре было непривычно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Было в конце изза того что затекла шея </t>
+  </si>
+  <si>
+    <t>Понравилась</t>
+  </si>
+  <si>
+    <t>Играл. Очень понравилась</t>
+  </si>
+  <si>
+    <t>2025-04-25 11:19:57</t>
+  </si>
+  <si>
+    <t>Во время игры чувствовался комфорт и спокойствие. Фоновые звуки (пиканье) были совсем незаметны. Никакие из перечисленных недугов не испытал. Во время игры хотелось почесать шею и лицо, но смирился и продолжил играть</t>
+  </si>
+  <si>
+    <t>Эксперимент не показался утомительным, было интересно и я был полностью вовлечён в него. После игры было немного трудно справиться с желанием подвигать ногами и руками, возможно из-за неподвижного состояния во время игры</t>
+  </si>
+  <si>
+    <t>Игра очень понравилась! Красочные локации, которые радуют глаз, любимые персонажи, приятные уху голоса и звуки. Музыка идеально подходит для уровней. Игра замечательная!</t>
+  </si>
+  <si>
+    <t>С игрой я знаком уже долгое время, перепрохожу ее полностью каждый год, обожаю игровую франшизу и саму игру, поэтому рад возвращаться в нее снова и снова!</t>
+  </si>
+  <si>
+    <t>2025-04-17 08:44:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все затекло из-за сидения в одном положении, а так норм </t>
+  </si>
+  <si>
+    <t>играть кайф, а звук слушать не кайф..</t>
+  </si>
+  <si>
+    <t>да, просто крутая культовая  сюжетка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да, но так и не прошла до конца, начала играть недавно, очень нравится </t>
+  </si>
+  <si>
+    <t>2025-04-23 08:14:18</t>
+  </si>
+  <si>
+    <t>7. Чувствую себя свежим, в запасе значительная энергия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дискомфорта не чувствовалось </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не утомительный, единственное утомительное это когда нет аудио и надо с закрытыми глазами сидеть, теряется ощущение времени </t>
+  </si>
+  <si>
+    <t>Да, интересная сюжетная линия, много диалогов</t>
+  </si>
+  <si>
+    <t>Нет, только первые минут 10 смотрел на Ютубе, поэтому не стал перезапускать обучение</t>
+  </si>
+  <si>
+    <t>2025-04-28 08:00:20</t>
+  </si>
+  <si>
+    <t>6. Ничто особенно не беспокоит меня. Чувствую себя более или менее непринужденно.</t>
+  </si>
+  <si>
+    <t>Дискомфорта не ощущал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под конец было небольшое утомление. Думаю, что оно было вызвано ограниченностью в движении </t>
+  </si>
+  <si>
+    <t>Да, понравилась. Нравиться жанр в целом и сеттинг, в котором выполнена игра, также завлекают механики ведения войны и управления государством.</t>
+  </si>
+  <si>
+    <t>Да, играл ранее. Играл точно также, как и во время эксперимента.</t>
+  </si>
+  <si>
+    <t>2025-04-14 07:54:04</t>
+  </si>
+  <si>
+    <t>1. Крайняя депрессия и уныние. Подавлен. Все черно и серо.</t>
+  </si>
+  <si>
+    <t>1 - определенно нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самочувствие было нормальными </t>
+  </si>
+  <si>
+    <t>эксперимент был утомительным , хотелось чтобы он поскорее закончился, связано это было с подготовкой к нему (этот серый экран, утомительно было ждать)</t>
+  </si>
+  <si>
+    <t>Не понравилось игра. Просто не моё, не затянула , че то надо ходить собирать в помещениях, не особо заходит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раньше играл в подобные игры, сейчас как то не нравится . </t>
+  </si>
+  <si>
+    <t>045286</t>
+  </si>
+  <si>
+    <t>2025-04-04 09:57:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">все хорошо </t>
+  </si>
+  <si>
+    <t>утомительно на крестик смотреть, а так норм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да, потому что почти победила </t>
+  </si>
+  <si>
+    <t>да, игра нравится, доходила по карте намного дальше</t>
+  </si>
+  <si>
+    <t>2025-04-04 04:58:29</t>
+  </si>
+  <si>
+    <t>Всё было хорошо, чувствовал себя в порядке. Ближе к концу эксперимента почувствовал, что мёрзнут руки, хотя в помещении довольно тепло</t>
+  </si>
+  <si>
+    <t>Эксперимент не был утомительным, желания, чтобы он поскорее закончился, не было</t>
+  </si>
+  <si>
+    <t>Да, я люблю эту игру в первую очередь за геймплей и визуальное и музыкальное оформление. Не очень понравилось управление.</t>
+  </si>
+  <si>
+    <t>Да, играл ранее, но я играл только с геймпада, потому было немного тяжело адаптироваться под клавиатуру. 
+Предыдущий игровой опыт: помню, что в первое прохождение было сложно, сначала забросил игру, не доходя до первого босса. Со второго раза уже прошел взахлеб. В некоторых моментах было очень тяжело, но всегда хотелось продолжать в неё играть.</t>
+  </si>
+  <si>
+    <t>2025-04-23 05:26:34</t>
+  </si>
+  <si>
+    <t>3. Большая усталость. Вялый. Скудные ресурсы энергии.</t>
+  </si>
+  <si>
+    <t>Самочувствие было хорошее, ничего не было, играл как у себя дома, пищание даже успокаивало в наушниках</t>
+  </si>
+  <si>
+    <t>Да нет, я хотел поиграть подольше, только обидно что двигаться нельзя</t>
+  </si>
+  <si>
+    <t>Да понравилась, очень крутая графика и атмосфера</t>
+  </si>
+  <si>
+    <t>Нет, не играл</t>
+  </si>
+  <si>
+    <t>2025-04-18 10:30:15</t>
+  </si>
+  <si>
+    <t>5. Чувствую, что мои умения и способности несколько ограничены.</t>
+  </si>
+  <si>
+    <t>в общем и целом все было нормально
+не было какого-то ярко выраженного дискомфорта
+единственное что, иногда чувствовал что головк как бы зафиксированна к спинке, но это не очень сильно мешало лично мне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">немного утомительными показались моменты, где нужно было сидеть расслабленными
+</t>
+  </si>
+  <si>
+    <t>игра понравилась, давно хотел попробовать 
+до этого не играл, предыдущие части тоже не трогал
+плюсы: графика, сеттинг, геймплей (по базе короче)
+минусы: ну я тупил немного</t>
+  </si>
+  <si>
+    <t>боевая система мне показалась немного примитивной, просто тыкаешь в одну кнопку
+мне даже не приходилось контролировать дистанцию - бэтмен сам притягивался к врагам
+а так в целом прикольно</t>
+  </si>
+  <si>
+    <t>2025-04-29 05:43:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под конец эксперимента затекли конечности и начались небольшие судороги в связи с малой подвижностью, по поводу звука в период кат-сцен он мешал, во стальное время не отвлекал </t>
+  </si>
+  <si>
+    <t>Под конец, когда игра была прервана, было тяжело сидеть и смотреть в экран и проходить тесты с глазами, связано это с тем, что это было долго и довольно скучно по сравнению с игрой</t>
+  </si>
+  <si>
+    <t>Да, стелистикой и атмосферой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не играл, но был наслышан об игре, впечатления приятные, доиграл бы обязательно до конца игры </t>
+  </si>
+  <si>
+    <t>054051</t>
+  </si>
+  <si>
+    <t>2025-04-03 05:14:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувствовал себя довольно комфортно и спокойно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не испытал утомления </t>
+  </si>
+  <si>
+    <t>За 1500 часов все понравилось 
+Потому что кубики</t>
+  </si>
+  <si>
+    <t>Ранее играл в неё на протяжении 5-6 лет
+За это время набил 1500 часов и добился почти всего чего хотел</t>
+  </si>
+  <si>
+    <t>2025-04-14 11:23:19</t>
+  </si>
+  <si>
+    <t>Самочувствие было очень хорошее, недомогания тошноты и так далее не было.</t>
+  </si>
+  <si>
+    <t>Утомления не было, я был погружен в игру и мне все понравилось, только момент с тем, что нужно сидеть и ничего не делать, вот это было утомительно, ну тут как бы понятно.</t>
+  </si>
+  <si>
+    <t>Конечно понравилась. Она понравилась тем, что очень динамичная, множество различной музыки, которая сопровождает всю игру, разнообразные уровни от самых легких то довольно сложных, она требует концентрации и хорошей реакции.</t>
+  </si>
+  <si>
+    <t>Да играл года 3 назад, входил в топ 10 игроков, поэтому опыта у меня много но не смотря на это игра все равно останется очень интересной, даже проходя легкие уровни.</t>
+  </si>
+  <si>
+    <t>2025-04-19 08:14:51</t>
+  </si>
+  <si>
+    <t>5. Несколько озабочен, чувствую себя скованно, немного встревожен.</t>
+  </si>
+  <si>
+    <t>Со временем стала ощущаться тяжесть и сдавленность головы, появилась головная боль и затекла шея. Шея затекла из-за малоподвижности и возможно головная боль спровоцирована этим и так же пиканием</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Было утомительно, но в целом хотелось продолжить. Из-за пикания усталость наступает быстрее, чем если бы я просто играла </t>
+  </si>
+  <si>
+    <t>Да, мне нравится такой жанр игр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играла, прыдуший опыт положительный, но спустя долгое время мне надоедает и я совсем перестаю играть. Это происходит со всеми играми и длинными сериалами </t>
+  </si>
+  <si>
+    <t>2025-04-15 08:26:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вообщем , хорошее, не хватает подвижности или перерывов, полностью расслабиться не получалось ибо сиделось хоть и хорошо , но не привычно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">достаточно утомительными , только под конец игры, просто превысил обычное время игровой сессии , звук раздражитель доканал
+делал громкость ниже из-за звука-раздражителя опустил до 10 пунктов , казалось , что звук становится громче 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понравилась динамикой , тем что давно не играл без беспокойства о быту </t>
+  </si>
+  <si>
+    <t>Да играл,  для поддержания уровня навыков</t>
+  </si>
+  <si>
+    <t>2025-04-16 10:50:09</t>
+  </si>
+  <si>
+    <t>Хорошее самочувствие, дискомфорта не было</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Немного утомительный из-за долгих пауз для расслабления </t>
+  </si>
+  <si>
+    <t>Да, понравилась, она расслабляет и имеет в себе мало напряжённых моментов</t>
+  </si>
+  <si>
+    <t>Ранее играл и, потратив более 50 часов, почти прошел её</t>
+  </si>
+  <si>
+    <t>2025-04-19 11:08:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чувствовал себя в порядке, к концу эксперимента начал ощущать небольшую усталость, вызванную некоторым дискомфортом от ношения устройств на голове </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В целом, эксперимент не показался мне сильно утомительным, но в финале эксперимента хотелось бы, чтобы проверки состояния покоя завершились быстрее. 
+Утомление, на мой взгляд, вызывалось долгим положением в одной позе и устройством на голове, которое после длительного ношения начало причинять небольшой дискомфорт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да
+У этой игры интересный геймплей и вариативность; также она требует критического мышления для выбора позиций, манёвров и боя, что заставляло думать каждую секунду игрового процесса 
+</t>
+  </si>
+  <si>
+    <t>Да, я играл в неё ранее, но очень давно и не очень долго. 
+Предыдущий игровой опыт также был положительный, так как мне нравится оформление игры и подход разработчика к реализации игрового процесса и игровых механик</t>
+  </si>
+  <si>
+    <t>2025-04-07 08:34:08</t>
+  </si>
+  <si>
+    <t>Во время проверки расслабленного состояния я чувствовал раздражение от резкого звука.
+Я чувствовал себя спокойным во время игры, только в моменты сильного напряжения в игре чувствовалось возбуждение. Также чувствовал дискомфорт от долгого сидения в одной позе. Также, когда в коридоре был резкий шум, я на один момент отвлекся от игры и испытал раздражение</t>
+  </si>
+  <si>
+    <t>Меня утомило во вреся эксперимента — долгое сидение в одной позе и долгое ожидание во время проверки расслабленного состояния</t>
+  </si>
+  <si>
+    <t>Мне нравится эта игра своей атмосферой, сюжетом, открытым миром и различными вариантами прохождения</t>
+  </si>
+  <si>
+    <t>Я проходил данную игру около 5 раз. Я довольно хорошо еë знаю, а также умело играю в неë. Каждый раз я прохожу еë, набирая максимальное количество ресурсов и максимально прокачиваясь. Никакие враги из игры мне не страшны</t>
+  </si>
+  <si>
+    <t>2025-04-24 11:35:02</t>
+  </si>
+  <si>
+    <t>я чувствовала расслабление, немного кружилась голова в моменте, но в общем, чувствовала себя хорошо</t>
+  </si>
+  <si>
+    <t>было скучно, когда нужно было смотреть в одну точку</t>
+  </si>
+  <si>
+    <t>да, игра понравилась, я буду играть в нее еще</t>
+  </si>
+  <si>
+    <t>я играла в нее всего часик, но меня уже затянуло</t>
+  </si>
+  <si>
+    <t>2025-04-25 07:57:28</t>
+  </si>
+  <si>
+    <t>ощущение затёкшей шеи ближе к концу игрового процесса из-за веса датчиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">желания закончить не было, лишт небольшой дискомфорт </t>
+  </si>
+  <si>
+    <t>Игра понравилась возможностью погрузиться в поток, и проверить себя на анализ окружения в стрессовой ситуации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">играл в эту игру много раз, впечатления положительные, всегда возвращаюсь к этой игре чтобы отвлечься от повседневной суеты </t>
+  </si>
+  <si>
+    <t>2025-04-22 11:13:34</t>
+  </si>
+  <si>
+    <t>физическое и эмоционально состояние было отличным, никаких недомоганий или дискомфорта не было</t>
+  </si>
+  <si>
+    <t>эксперимент показался мне интересным, не было желания поскорее его закончить. после его окончания, появилось ощущение, что все время пока я была в состоянии покоя я была в каком-то трансе, как будто далеко от реальности</t>
+  </si>
+  <si>
+    <t>мне понравилась игра, для меня очень увлекательно строить дома и проявлять креатив. в моменте я даже была настолько погружена в игру, что не слышала никаких звуков в нацшниках</t>
+  </si>
+  <si>
+    <t>да я играла в игру (симс 4) ранее, больше всего мне нравится строить дома, поэтому чаще всего я так и играю, а не как в симулятор</t>
+  </si>
+  <si>
+    <t>2025-04-21 07:49:00</t>
+  </si>
+  <si>
+    <t>Стал зевать и папу раз чихнул на замере в конце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Единственное утомительно - это расслабленно сидеть </t>
+  </si>
+  <si>
+    <t>Да понравилась. Просто хорошая игра</t>
+  </si>
+  <si>
+    <t>Я играл в сиквел этой игры. Там активно использовал вики для прохождения. Интересный факт, играл в ту игру с идентичной периферией lenovo</t>
+  </si>
+  <si>
+    <t>2025-03-22 10:16:15</t>
+  </si>
+  <si>
+    <t>Самочувствие было хорошим, поначалу было небольшое волнение, затем дискомфорта на было</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Утомления не было </t>
+  </si>
+  <si>
+    <t>Игра понравилась, хорошее визуальное оформления, довольно интересный и в тоже время сложный геймплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играл в данную игру раньше, но очень давно. Впечатления были положительные </t>
+  </si>
+  <si>
+    <t>2025-04-05 05:01:40</t>
+  </si>
+  <si>
+    <t>5. Чувствую себя чуть-чуть подавленно, «так себе».</t>
+  </si>
+  <si>
+    <t>Раздражение, бесил тикающий звук на фоне и то, что не дали поставить блок на CapsLock, физических ощущений не было</t>
+  </si>
+  <si>
+    <t>Не утомительно, нормально</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, но я уже ее проходила ранее </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, играла, очень давно. Проходила с огромными перерывами, переодически забывается управление и механика. Но игра норм. </t>
+  </si>
+  <si>
+    <t>093056</t>
+  </si>
+  <si>
+    <t>2025-04-02 09:05:03</t>
+  </si>
+  <si>
+    <t>9. Возбужден, в приподнятом состоянии. Восторженность.</t>
+  </si>
+  <si>
+    <t>Никакого дискомфорта. В моменте даже перестал замечать, что играю в игру в лабораторных (необычных для себя) условиях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Только после того, как прервали сеанс игры, ощущалось желание, чтобы эксперимент закончился быстрее. Связано это было с утомлением после игрового сеанса. </t>
+  </si>
+  <si>
+    <t>Да, потому что в эту игру я уже играл ранее и она является моей любимой. Всегда приятно в неё возвращаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, проходил более 10 раз. Эта игра является одной из моей любимых, возможно даже самой любимой. Играл по-разному, изучал мир игры, его историю. </t>
+  </si>
+  <si>
+    <t>2025-04-15 10:36:52</t>
+  </si>
+  <si>
+    <t>Все было нормально, но спустя время начали неметь мизинцы на руках и болеть голова из-за раздражающего звука</t>
+  </si>
+  <si>
+    <t>Было желание, чтобы раздражающий звук на фоне прекратился и все, в остальном ничего утомительного</t>
+  </si>
+  <si>
+    <t>Понравилась своим сюжетом, визуальным оформлением, заданиями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, одна из моих любимых серий игр. Довольно интересная, динамичная, к ней хочется вернуться </t>
+  </si>
+  <si>
+    <t>2025-05-03 08:44:10</t>
+  </si>
+  <si>
+    <t>Через минут 20 стало не так комфортно сидеть в кресле – засиделся в одной позе</t>
+  </si>
+  <si>
+    <t>Не слишком утомительно. Терпения хватало</t>
+  </si>
+  <si>
+    <t>Игра в целом понравилась картинкой, озвучкой и свободой действий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ранее в Ведьмак 3 не играл. Было интересно попробовать и прикоснуться к тому, что очень многим нравится </t>
+  </si>
+  <si>
+    <t>2025-04-22 05:11:48</t>
+  </si>
+  <si>
+    <t>Моё самочувствие было в порядке, никаких недомоганий не вызвало</t>
+  </si>
+  <si>
+    <t>Возможно утомление связано с тем что проверки с открытыми и закрытыми глазами слишком частые, в целом я не утомился</t>
+  </si>
+  <si>
+    <t>Эта игра мне нравится, но во время эксперемента случились неполадки с интернетом и игра по сети была не доступна, поэтому я просто проходил локальные карты</t>
+  </si>
+  <si>
+    <t>Да я играл в эту игру раньше, особенно во время её выхода, поэтому хорошо с ней знаком, но от этого она не становится менее интересной из-за игры по сети</t>
+  </si>
+  <si>
+    <t>2025-04-20 05:08:22</t>
+  </si>
+  <si>
+    <t>Самочувствие было отличное. Никакого дискомфорта.</t>
+  </si>
+  <si>
+    <t>Немного утомительна часть после геймплея. Хотелось бы, чтобы это чуть быстрее закончилось.</t>
+  </si>
+  <si>
+    <t>Игра не понравилась тем, что я играю в неё уже в сотый раз, повторные действия слишком скучные. Понравилась тем, что последний раз играл в нее давно, приятно вспомнить прошлое.</t>
+  </si>
+  <si>
+    <t>Да, играл. Предыдущий игровой опыт положительный, игра нравится тем, что в ней есть большой выбор, начиная от стиля геймплея персонажа и заканчивая сюжетом. Поэтому её можно перепроходить много раз.</t>
+  </si>
+  <si>
+    <t>2025-04-29 10:55:21</t>
+  </si>
+  <si>
+    <t>Хорошее самочуствие, немного затекали ноги</t>
+  </si>
+  <si>
+    <t>Немного утомительное ожидание в начале и завершение</t>
+  </si>
+  <si>
+    <t>Понравилась, многг действий, интересный сюжет</t>
+  </si>
+  <si>
+    <t>Играл ранее, графика была неплохой, затягивающий сюжет</t>
+  </si>
+  <si>
+    <t>2025-04-21 05:05:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все было хорошо </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игра понравилась геймплеем </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играл ранее, игра очень понравилась </t>
+  </si>
+  <si>
+    <t>2025-04-19 05:09:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Самочувствие на протяжении всей игры было обычное </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Некоторое утомление появилось под конец эксперимента, потому что после того как посидел с закрытыми глазами достаточно длительное время, хочется спать и соответсвенно появляется некое утомление. </t>
+  </si>
+  <si>
+    <t>да, понравилась! динамикой сражений, разнообразием персонажей, оружия и визуальных кастомизаций.</t>
+  </si>
+  <si>
+    <t>Да, играл. Раньше постоянно играл в режим королевской битвы, играл с друзьями и в одиночку тоже, также очень любил всякие временные режимы (хэллуин, рождество). Сейчас в основном играю в короткие режимы, потому что меньше в них напрягаюсь.</t>
+  </si>
+  <si>
+    <t>2025-04-22 07:55:08</t>
+  </si>
+  <si>
+    <t>Чувствовал себя комфортно, немного болела поясница и шея немного затекла, но в целом чувствовал себя хорошо</t>
+  </si>
+  <si>
+    <t>было немного утомительно, так как старался не двигаться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне понравилась игра, мне нравятся соревновательные игры как cs и т.п. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">да я играл ранее, у меня в ней около 5000 часов, поэтому имею в ней большой опыт
+</t>
+  </si>
+  <si>
+    <t>2025-04-20 10:48:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под конец эксперимента начала затекать голова. А так было в целом нормально. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не утомительно. </t>
+  </si>
+  <si>
+    <t>Да. Понравилась уровнями, звуковым сопровождением и сюжетом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играл до этого, но давно. Могу пройти за пару часов. В текущей сессии забыл некоторые пасхалки и фичи игрового процесса, и, пытаясь вспомнить местонахождение или процесс получения таких, застревал на уровне. </t>
+  </si>
+  <si>
+    <t>2025-04-24 07:32:22</t>
+  </si>
+  <si>
+    <t>Под конец тело немного затекло, тошноты, недомогания не было, небольшой дискомфорт по началу из-за пикающего звука, потом стало нормально</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В моментах с открытыми, закрытыми глазами хотелось уснуть, немного плыло в глазах, во время игры утомления не было. </t>
+  </si>
+  <si>
+    <t>Игра понравилась, умеренная сложность, интересный геймплей,неплохая графика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раньше не играл, но играл в похожие, в целом все понравилось, планирую в будущем игру пройти до конца. </t>
+  </si>
+  <si>
+    <t>2025-04-16 08:12:13</t>
+  </si>
+  <si>
+    <t>Под конец уже тяжеловато было сидеть на одном месте, хотелось больше свободы движений.
+Во время игрового процесса достаточно отчетливо были слышны *пиканья* на фоне. Это нормально сильно мешало игровому процессу. Порой при полном погружение в игру эти *пиканья* уже не слышались.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Довольно утомительно сидеть в состоянии покоя, особенно после динамического Геймплея </t>
+  </si>
+  <si>
+    <t>Понравилась, в частности визуальные эффекты и музыка</t>
+  </si>
+  <si>
+    <t>Да, играл, по ощущениям лет 10 назад ещё. Я хорошо ознакомлен с этой игрой и как она развивалась. Очень давно когда активно увлекался этой игрой, тяжело было сдерживать эмоции от поражения, но как только удавалось пройти уровень, была большая радость.</t>
+  </si>
+  <si>
+    <t>2025-04-25 05:03:42</t>
+  </si>
+  <si>
+    <t>затекали конечности, и пересохли губы, затекла шея (от статичного положения это все)</t>
+  </si>
+  <si>
+    <t>да, желание было, чтобы он закончился, из за того что затекали конечности</t>
+  </si>
+  <si>
+    <t>игра понравилась, но во врем эксперимента было некомфортно играть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">играл, много играл. Я очень хорошо играю в эту игру, но в силу обстоятельств не раскрыл потенциал </t>
+  </si>
+  <si>
+    <t>2025-04-29 08:14:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Недомоганий не было, чувствовал себя прекрасно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Утомительным эксперимент не показался. Желания скорейшего завершения эксперимента не было. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Очень понравилась. 
+Я почувствовал себя настоящим гонщиком :)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Играл. Игра вызывала такие же яркие эмоции как и сейчас. </t>
+  </si>
+  <si>
+    <t>2025-04-18 08:02:12</t>
+  </si>
+  <si>
+    <t>Нормально, лёгкий дискомфорт от неправильной посадке</t>
+  </si>
+  <si>
+    <t>Норма, желания не было</t>
+  </si>
+  <si>
+    <t>Да, геймплей, сюжет, графика</t>
+  </si>
+  <si>
+    <t>Да, первая моя игра из серии игр Якудз, после неё я прошел 12 игр из этой серии</t>
+  </si>
+  <si>
+    <t>2025-04-21 10:25:12</t>
+  </si>
+  <si>
+    <t>Немного давило на голову, в остальном все хорошо .
+Постоянный писк в наушниках иногда напрягал, но во время интересных моментов в игре я переставал его замечать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большее утомление вызвало состояние покоя, когда нужно было открывать и закрывать глаза </t>
+  </si>
+  <si>
+    <t xml:space="preserve">одна из моих любимых игр. люблю в нее играть </t>
+  </si>
+  <si>
+    <t xml:space="preserve">да, игра захватывающая, интесрная и в меру сложная </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +1124,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -344,16 +1132,353 @@
       <name val="Liberation Sans"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -361,9 +1486,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -372,17 +1739,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -674,25 +2085,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.4380952380952" customWidth="1"/>
+    <col min="3" max="3" width="33.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:49">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -839,13 +2250,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:48">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>50</v>
       </c>
@@ -970,13 +2382,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:48">
       <c r="A3" s="2">
         <v>333752</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
+      <c r="C3"/>
       <c r="D3" t="s">
         <v>67</v>
       </c>
@@ -1101,13 +2514,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:48">
       <c r="A4" s="2">
         <v>325017</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
+      <c r="C4"/>
       <c r="D4" t="s">
         <v>79</v>
       </c>
@@ -1232,13 +2646,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:48">
       <c r="A5" s="2">
         <v>365415</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
       </c>
+      <c r="C5"/>
       <c r="D5" t="s">
         <v>86</v>
       </c>
@@ -1363,149 +2778,6218 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:48">
+      <c r="A6" s="2">
+        <v>902176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:48">
+      <c r="A7" s="2">
+        <v>885292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:48">
+      <c r="A8" s="2">
+        <v>195499</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:48">
+      <c r="A9" s="2">
+        <v>146831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:48">
+      <c r="A10" s="2">
+        <v>845926</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:48">
+      <c r="A11" s="2">
+        <v>913071</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:48">
+      <c r="A12" s="2">
+        <v>735684</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" t="s">
+        <v>58</v>
+      </c>
+      <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:48">
+      <c r="A13" s="2">
+        <v>834979</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:49">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:48">
+      <c r="A14" s="2">
+        <v>443408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" t="s">
+        <v>60</v>
+      </c>
+      <c r="V14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="15" spans="1:49">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:48">
+      <c r="A15" s="2">
+        <v>648208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:48">
+      <c r="A16" s="2">
+        <v>841045</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:48">
+      <c r="A17" s="2">
+        <v>373596</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R17" t="s">
+        <v>56</v>
+      </c>
+      <c r="S17" t="s">
+        <v>58</v>
+      </c>
+      <c r="T17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U17" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:48">
+      <c r="A18" s="2">
+        <v>113244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:48">
+      <c r="A19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" t="s">
+        <v>56</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>58</v>
+      </c>
+      <c r="W19" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:48">
+      <c r="A20" s="2">
+        <v>862274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>58</v>
+      </c>
+      <c r="R20" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" t="s">
+        <v>56</v>
+      </c>
+      <c r="T20" t="s">
+        <v>56</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:48">
+      <c r="A21" s="2">
+        <v>761404</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" t="s">
+        <v>89</v>
+      </c>
+      <c r="T21" t="s">
+        <v>55</v>
+      </c>
+      <c r="U21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:48">
+      <c r="A22" s="2">
+        <v>557394</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S22" t="s">
+        <v>56</v>
+      </c>
+      <c r="T22" t="s">
+        <v>56</v>
+      </c>
+      <c r="U22" t="s">
+        <v>60</v>
+      </c>
+      <c r="V22" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" t="s">
+        <v>58</v>
+      </c>
+      <c r="X22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:48">
+      <c r="A23" s="2">
+        <v>632847</v>
+      </c>
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" t="s">
+        <v>59</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
+      </c>
+      <c r="X23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:48">
+      <c r="A24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" t="s">
+        <v>57</v>
+      </c>
+      <c r="V24" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:48">
+      <c r="A25" s="2">
+        <v>710022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" t="s">
+        <v>89</v>
+      </c>
+      <c r="T25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U25" t="s">
+        <v>56</v>
+      </c>
+      <c r="V25" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" t="s">
+        <v>57</v>
+      </c>
+      <c r="X25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:48">
+      <c r="A26" s="2">
+        <v>120125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" t="s">
+        <v>54</v>
+      </c>
+      <c r="T26" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" t="s">
+        <v>56</v>
+      </c>
+      <c r="V26" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:48">
+      <c r="A27" s="2">
+        <v>814770</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" t="s">
+        <v>55</v>
+      </c>
+      <c r="U27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V27" t="s">
+        <v>58</v>
+      </c>
+      <c r="W27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X27" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:48">
+      <c r="A28" s="2">
+        <v>483009</v>
+      </c>
+      <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28" t="s">
+        <v>57</v>
+      </c>
+      <c r="V28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W28" t="s">
+        <v>59</v>
+      </c>
+      <c r="X28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:48">
+      <c r="A29" s="2">
+        <v>155121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>56</v>
+      </c>
+      <c r="V29" t="s">
+        <v>54</v>
+      </c>
+      <c r="W29" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:48">
+      <c r="A30" s="2">
+        <v>679594</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" t="s">
+        <v>54</v>
+      </c>
+      <c r="T30" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>58</v>
+      </c>
+      <c r="W30" t="s">
+        <v>56</v>
+      </c>
+      <c r="X30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:48">
+      <c r="A31" s="2">
+        <v>135304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T31" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" t="s">
+        <v>56</v>
+      </c>
+      <c r="V31" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" t="s">
+        <v>58</v>
+      </c>
+      <c r="X31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>238</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>240</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:48">
+      <c r="A32" s="2">
+        <v>447885</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" t="s">
+        <v>56</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>71</v>
+      </c>
+      <c r="W32" t="s">
+        <v>54</v>
+      </c>
+      <c r="X32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>244</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:48">
+      <c r="A33" s="2">
+        <v>355835</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>57</v>
+      </c>
+      <c r="R33" t="s">
+        <v>55</v>
+      </c>
+      <c r="S33" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" t="s">
+        <v>57</v>
+      </c>
+      <c r="U33" t="s">
+        <v>60</v>
+      </c>
+      <c r="V33" t="s">
+        <v>54</v>
+      </c>
+      <c r="W33" t="s">
+        <v>58</v>
+      </c>
+      <c r="X33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:48">
+      <c r="A34" s="2">
+        <v>587707</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" t="s">
+        <v>58</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" t="s">
+        <v>56</v>
+      </c>
+      <c r="U34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
+        <v>54</v>
+      </c>
+      <c r="X34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:48">
+      <c r="A35" s="2">
+        <v>105832</v>
+      </c>
+      <c r="B35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N35" t="s">
+        <v>58</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" t="s">
+        <v>54</v>
+      </c>
+      <c r="T35" t="s">
+        <v>59</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" t="s">
+        <v>58</v>
+      </c>
+      <c r="X35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:48">
+      <c r="A36" s="2">
+        <v>265094</v>
+      </c>
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" t="s">
+        <v>54</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>54</v>
+      </c>
+      <c r="V36" t="s">
+        <v>54</v>
+      </c>
+      <c r="W36" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>265</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>266</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:48">
+      <c r="A37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>57</v>
+      </c>
+      <c r="R37" t="s">
+        <v>55</v>
+      </c>
+      <c r="S37" t="s">
+        <v>57</v>
+      </c>
+      <c r="T37" t="s">
+        <v>57</v>
+      </c>
+      <c r="U37" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" t="s">
+        <v>54</v>
+      </c>
+      <c r="W37" t="s">
+        <v>54</v>
+      </c>
+      <c r="X37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:48">
+      <c r="A38" s="2">
+        <v>527415</v>
+      </c>
+      <c r="B38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" t="s">
+        <v>58</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>71</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U38" t="s">
+        <v>56</v>
+      </c>
+      <c r="V38" t="s">
+        <v>54</v>
+      </c>
+      <c r="W38" t="s">
+        <v>56</v>
+      </c>
+      <c r="X38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:48">
+      <c r="A39" s="2">
+        <v>825526</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" t="s">
+        <v>56</v>
+      </c>
+      <c r="U39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" t="s">
+        <v>54</v>
+      </c>
+      <c r="W39" t="s">
+        <v>58</v>
+      </c>
+      <c r="X39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:48">
+      <c r="A40" s="2">
+        <v>907623</v>
+      </c>
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" t="s">
+        <v>57</v>
+      </c>
+      <c r="P40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R40" t="s">
+        <v>56</v>
+      </c>
+      <c r="S40" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>288</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>289</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:48">
+      <c r="A41" s="2">
+        <v>971006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" t="s">
+        <v>58</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>71</v>
+      </c>
+      <c r="R41" t="s">
+        <v>56</v>
+      </c>
+      <c r="S41" t="s">
+        <v>89</v>
+      </c>
+      <c r="T41" t="s">
+        <v>54</v>
+      </c>
+      <c r="U41" t="s">
+        <v>57</v>
+      </c>
+      <c r="V41" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" t="s">
+        <v>57</v>
+      </c>
+      <c r="X41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:48">
+      <c r="A42" s="2">
+        <v>489107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N42" t="s">
+        <v>54</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>54</v>
+      </c>
+      <c r="R42" t="s">
+        <v>58</v>
+      </c>
+      <c r="S42" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" t="s">
+        <v>55</v>
+      </c>
+      <c r="U42" t="s">
+        <v>60</v>
+      </c>
+      <c r="V42" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" t="s">
+        <v>57</v>
+      </c>
+      <c r="X42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:48">
+      <c r="A43" s="2">
+        <v>863463</v>
+      </c>
+      <c r="B43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" t="s">
+        <v>54</v>
+      </c>
+      <c r="O43" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>58</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>59</v>
+      </c>
+      <c r="U43" t="s">
+        <v>60</v>
+      </c>
+      <c r="V43" t="s">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s">
+        <v>56</v>
+      </c>
+      <c r="X43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:48">
+      <c r="A44" s="2">
+        <v>241446</v>
+      </c>
+      <c r="B44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>71</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44" t="s">
+        <v>89</v>
+      </c>
+      <c r="T44" t="s">
+        <v>54</v>
+      </c>
+      <c r="U44" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" t="s">
+        <v>57</v>
+      </c>
+      <c r="X44" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:48">
+      <c r="A45" s="2">
+        <v>820694</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s">
+        <v>54</v>
+      </c>
+      <c r="M45" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s">
+        <v>58</v>
+      </c>
+      <c r="S45" t="s">
+        <v>89</v>
+      </c>
+      <c r="T45" t="s">
+        <v>55</v>
+      </c>
+      <c r="U45" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" t="s">
+        <v>58</v>
+      </c>
+      <c r="W45" t="s">
+        <v>56</v>
+      </c>
+      <c r="X45" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:48">
+      <c r="A46" s="2">
+        <v>475645</v>
+      </c>
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
+        <v>115</v>
+      </c>
+      <c r="J46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46" t="s">
+        <v>54</v>
+      </c>
+      <c r="S46" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>58</v>
+      </c>
+      <c r="V46" t="s">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s">
+        <v>58</v>
+      </c>
+      <c r="X46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:48">
+      <c r="A47" s="2">
+        <v>319924</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="P47" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>58</v>
+      </c>
+      <c r="R47" t="s">
+        <v>56</v>
+      </c>
+      <c r="S47" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" t="s">
+        <v>58</v>
+      </c>
+      <c r="V47" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" t="s">
+        <v>56</v>
+      </c>
+      <c r="X47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>320</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:48">
+      <c r="A48" s="2">
+        <v>208114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>54</v>
+      </c>
+      <c r="R48" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48" t="s">
+        <v>89</v>
+      </c>
+      <c r="T48" t="s">
+        <v>54</v>
+      </c>
+      <c r="U48" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" t="s">
+        <v>54</v>
+      </c>
+      <c r="W48" t="s">
+        <v>57</v>
+      </c>
+      <c r="X48" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>327</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:48">
+      <c r="A49" s="2">
+        <v>300279</v>
+      </c>
+      <c r="B49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" t="s">
+        <v>56</v>
+      </c>
+      <c r="M49" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" t="s">
+        <v>103</v>
+      </c>
+      <c r="O49" t="s">
+        <v>54</v>
+      </c>
+      <c r="P49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>54</v>
+      </c>
+      <c r="R49" t="s">
+        <v>58</v>
+      </c>
+      <c r="S49" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" t="s">
+        <v>56</v>
+      </c>
+      <c r="U49" t="s">
+        <v>54</v>
+      </c>
+      <c r="V49" t="s">
+        <v>58</v>
+      </c>
+      <c r="W49" t="s">
+        <v>58</v>
+      </c>
+      <c r="X49" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>330</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>331</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>332</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:48">
+      <c r="A50" s="2">
+        <v>446415</v>
+      </c>
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
+      <c r="L50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>57</v>
+      </c>
+      <c r="R50" t="s">
+        <v>55</v>
+      </c>
+      <c r="S50" t="s">
+        <v>58</v>
+      </c>
+      <c r="T50" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" t="s">
+        <v>60</v>
+      </c>
+      <c r="V50" t="s">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s">
+        <v>56</v>
+      </c>
+      <c r="X50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>335</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>336</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>337</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:48">
+      <c r="A51" s="2">
+        <v>666522</v>
+      </c>
+      <c r="B51" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" t="s">
+        <v>56</v>
+      </c>
+      <c r="O51" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51" t="s">
+        <v>89</v>
+      </c>
+      <c r="T51" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" t="s">
+        <v>60</v>
+      </c>
+      <c r="V51" t="s">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s">
+        <v>56</v>
+      </c>
+      <c r="X51" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:48">
+      <c r="A52" s="2">
+        <v>344772</v>
+      </c>
+      <c r="B52" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+      <c r="M52" t="s">
+        <v>54</v>
+      </c>
+      <c r="N52" t="s">
+        <v>103</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>54</v>
+      </c>
+      <c r="R52" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52" t="s">
+        <v>54</v>
+      </c>
+      <c r="T52" t="s">
+        <v>56</v>
+      </c>
+      <c r="U52" t="s">
+        <v>58</v>
+      </c>
+      <c r="V52" t="s">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>347</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AW52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AW52" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:AW52">
+      <sortCondition ref="C1:C52"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>